--- a/polyeXplore_smiles.xlsx
+++ b/polyeXplore_smiles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29221"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15 Polyexplore\predictions_polyprop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sibabrata\eXplore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D09F668-4C78-4205-90A6-147BFB3E8C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F30D47-0AE0-400A-AB8B-575BB2478435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,9 +374,6 @@
     <t>Aromatic backbone with ketone and ether groups, high rigidity and polarity.</t>
   </si>
   <si>
-    <t>Aromatic heterocyclic backbone with imidazole groups, highly rigid, thermally stable.</t>
-  </si>
-  <si>
     <t>Aliphatic -C-C- flexible backbone, branched structure in LDPE, non-polar.</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>Aliphatic polyamide, shorter chain (SCPA), strong hydrogen bonding.</t>
   </si>
   <si>
-    <t>Aliphatic polyamide with long methylene segments(LCPA), flexible hydrogen-bonded.</t>
-  </si>
-  <si>
     <t>Symmetric aliphatic polyamide (SCPA), high crystallinity and strong H-bonding.</t>
   </si>
   <si>
@@ -428,7 +422,13 @@
     <t>c1cc(cc2nc([NH]c12)c1ccccc1)c1ccc2nc[NH]c2c1</t>
   </si>
   <si>
-    <t>CCCCCCCCCCCCCCCCCCCCCCCCCCCCCC</t>
+    <t>CCCCCCCCCCCCCCCCCCCC</t>
+  </si>
+  <si>
+    <t>Aliphatic polyamide with long flexible methylene segments(LCPA), hydrogen-bonded linking chains</t>
+  </si>
+  <si>
+    <t>Aromatic heterocyclic backbone with imidazole groups, highly rigid, thermally stable, absorbes water</t>
   </si>
 </sst>
 </file>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,7 +804,7 @@
     <col min="1" max="1" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7265625" style="2" customWidth="1"/>
     <col min="3" max="3" width="80.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -829,10 +829,10 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -846,7 +846,7 @@
         <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -860,7 +860,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -874,7 +874,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -902,10 +902,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -916,7 +916,7 @@
         <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -930,7 +930,7 @@
         <v>73</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -944,7 +944,7 @@
         <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -972,7 +972,7 @@
         <v>76</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -986,7 +986,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1000,7 +1000,7 @@
         <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1042,7 +1042,7 @@
         <v>81</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1070,7 +1070,7 @@
         <v>83</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1084,7 +1084,7 @@
         <v>84</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1098,7 +1098,7 @@
         <v>85</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1255,7 +1255,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1263,10 +1263,10 @@
         <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
